--- a/PCB/BOM PPU_LITE.xlsx
+++ b/PCB/BOM PPU_LITE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>U3</t>
   </si>
@@ -129,9 +129,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>C15,C17,C32,C33,C34,C35</t>
-  </si>
-  <si>
     <t>C36,C37,C38,C39</t>
   </si>
   <si>
@@ -199,12 +196,6 @@
   </si>
   <si>
     <t>GRM43DR61E106K*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1uF X7R 16V 10% 0603, </t>
-  </si>
-  <si>
-    <t>GRM188R71C105KA12D**</t>
   </si>
   <si>
     <t xml:space="preserve">0.1uF X7R 16V 10%  </t>
@@ -277,9 +268,6 @@
     <t>SN74LVC4245APWR</t>
   </si>
   <si>
-    <t>T491B226K016AT  kemet,  TR3B226K010C0700 vishay</t>
-  </si>
-  <si>
     <t>EP1C3T100C8N</t>
   </si>
   <si>
@@ -289,9 +277,6 @@
     <t>AMS1117-1.5</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t xml:space="preserve">110Ω±5%   </t>
   </si>
   <si>
@@ -332,6 +317,57 @@
   </si>
   <si>
     <t>LD1117-1.5</t>
+  </si>
+  <si>
+    <t>CAT16-101J4LF</t>
+  </si>
+  <si>
+    <t>0603x4</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>RC0603FR-07750RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">750Ω±1%   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">124Ω±1%   </t>
+  </si>
+  <si>
+    <t>CRCW0603124RFKEA</t>
+  </si>
+  <si>
+    <t>Vishay/Dale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287Ω±1%   </t>
+  </si>
+  <si>
+    <t>CAT16-102J4LF</t>
+  </si>
+  <si>
+    <t>CAT16-202J4LF</t>
+  </si>
+  <si>
+    <t>4х2kΩ1%</t>
+  </si>
+  <si>
+    <t>4х1kΩ1%</t>
+  </si>
+  <si>
+    <t>4х100Ω5%</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF2870V</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2552,7 @@
     <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2543,9 +2579,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -2604,6 +2637,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1324" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4479,10 +4518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:V44"/>
+  <dimension ref="A4:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4492,7 +4531,7 @@
     <col min="3" max="3" width="90.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" customWidth="1"/>
     <col min="9" max="9" width="72.42578125" customWidth="1"/>
@@ -4518,26 +4557,26 @@
       <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>78</v>
+      <c r="I5" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -4559,20 +4598,20 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4594,11 +4633,11 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="35" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>7</v>
@@ -4607,7 +4646,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -4650,19 +4689,19 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="34" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -4671,20 +4710,20 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="35" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>88</v>
+      <c r="I10" s="21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -4693,9 +4732,9 @@
       <c r="D11" s="1"/>
       <c r="E11" s="11"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -4707,20 +4746,20 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>83</v>
+      <c r="E12" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>89</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -4743,13 +4782,13 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -4778,20 +4817,20 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -4815,20 +4854,20 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>47</v>
+      <c r="E15" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="3">
         <v>1206</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>91</v>
+      <c r="H15" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -4840,19 +4879,19 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -4866,7 +4905,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>21</v>
@@ -4874,11 +4913,11 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="3">
         <v>1206</v>
@@ -4887,7 +4926,7 @@
         <v>22</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -4902,7 +4941,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -4910,17 +4949,17 @@
       <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>75</v>
+      <c r="E18" s="34" t="s">
+        <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="9"/>
@@ -4936,7 +4975,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -4944,17 +4983,17 @@
       <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>74</v>
+      <c r="E19" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="9"/>
@@ -4970,22 +5009,22 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="9"/>
@@ -5001,7 +5040,7 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -5011,16 +5050,16 @@
         <v>4</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
@@ -5034,7 +5073,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -5044,16 +5083,16 @@
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
@@ -5067,7 +5106,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -5077,16 +5116,16 @@
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="5"/>
@@ -5100,7 +5139,7 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5121,7 +5160,7 @@
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>29</v>
@@ -5130,16 +5169,16 @@
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
@@ -5153,21 +5192,20 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>96</v>
@@ -5184,317 +5222,361 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>63</v>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C28" s="7"/>
-      <c r="D28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="27" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C29" s="26"/>
-      <c r="D29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>99</v>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>61</v>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
+      <c r="H30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="C31" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>59</v>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="7">
-        <v>1812</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+    </row>
+    <row r="33" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+      <c r="D34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="1">
-        <v>603</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="16"/>
-      <c r="U32" s="2"/>
+      <c r="E34" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="C33" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="U33" s="2"/>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="25"/>
+      <c r="D35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="4"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="U35" s="2"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
+      <c r="C36" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1812</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
       <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="1">
+        <v>603</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="15"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+    <row r="38" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="C38" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="6"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -5507,10 +5589,12 @@
       <c r="S38" s="5"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="25"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -5524,104 +5608,203 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
+      <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="4"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C42" s="4"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="4"/>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C44" s="4"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C46" s="4"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C47" s="4"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C49" s="4"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PCB/BOM PPU_LITE.xlsx
+++ b/PCB/BOM PPU_LITE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
   <si>
     <t>U3</t>
   </si>
@@ -123,9 +123,6 @@
     <t>0603</t>
   </si>
   <si>
-    <t>C20</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -190,12 +187,6 @@
   </si>
   <si>
     <t>GRM1885C1H102J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10uF X5R 10% 25V 1812, </t>
-  </si>
-  <si>
-    <t>GRM43DR61E106K*</t>
   </si>
   <si>
     <t xml:space="preserve">0.1uF X7R 16V 10%  </t>
@@ -377,7 +368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,6 +714,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="24">
@@ -2552,7 +2550,7 @@
     <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2643,6 +2641,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4518,10 +4519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:V49"/>
+  <dimension ref="A4:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4564,19 +4565,19 @@
         <v>30</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -4602,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>5</v>
@@ -4611,7 +4612,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4637,7 +4638,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>7</v>
@@ -4646,7 +4647,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -4693,7 +4694,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>9</v>
@@ -4714,7 +4715,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>11</v>
@@ -4723,7 +4724,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -4747,19 +4748,19 @@
         <v>1</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -4786,7 +4787,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>15</v>
@@ -4818,19 +4819,19 @@
         <v>1</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -4855,19 +4856,19 @@
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="3">
         <v>1206</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -4883,7 +4884,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>20</v>
@@ -4917,7 +4918,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="3">
         <v>1206</v>
@@ -4926,7 +4927,7 @@
         <v>22</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -4950,16 +4951,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="9"/>
@@ -4984,16 +4985,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="9"/>
@@ -5015,16 +5016,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="9"/>
@@ -5050,16 +5051,16 @@
         <v>4</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
@@ -5083,16 +5084,16 @@
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
@@ -5116,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="5"/>
@@ -5169,16 +5170,16 @@
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
@@ -5199,16 +5200,16 @@
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="5"/>
@@ -5229,16 +5230,16 @@
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="5"/>
@@ -5259,16 +5260,16 @@
         <v>6</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="5"/>
@@ -5289,16 +5290,16 @@
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="5"/>
@@ -5319,16 +5320,16 @@
         <v>3</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="5"/>
@@ -5349,16 +5350,16 @@
         <v>3</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="5"/>
@@ -5380,16 +5381,16 @@
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="5"/>
@@ -5403,26 +5404,26 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
     </row>
-    <row r="33" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="3"/>
@@ -5436,22 +5437,22 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
       <c r="D34" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="4"/>
@@ -5466,22 +5467,22 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C35" s="25"/>
       <c r="D35" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="7"/>
@@ -5496,87 +5497,72 @@
       <c r="S35" s="7"/>
       <c r="T35" s="4"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>58</v>
+      <c r="E36" s="36" t="s">
+        <v>55</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="7">
-        <v>1812</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="15"/>
       <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
       <c r="C37" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="1">
-        <v>603</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="C38" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I38" s="6"/>
+      <c r="B38" s="1"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -5589,7 +5575,7 @@
       <c r="S38" s="5"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="5"/>
@@ -5610,7 +5596,7 @@
       <c r="S39" s="5"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="5"/>
@@ -5631,12 +5617,10 @@
       <c r="S40" s="5"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="24"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="23"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -5652,10 +5636,10 @@
       <c r="S41" s="5"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="23"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -5671,7 +5655,7 @@
       <c r="S42" s="5"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="24"/>
@@ -5688,87 +5672,88 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
-      <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C45" s="4"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
       <c r="T46" s="4"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
       <c r="T47" s="4"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -5785,26 +5770,6 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C49" s="4"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PCB/BOM PPU_LITE.xlsx
+++ b/PCB/BOM PPU_LITE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
   <si>
     <t>U3</t>
   </si>
@@ -298,9 +298,6 @@
     <t>GCM188R72A103KA37D</t>
   </si>
   <si>
-    <t>0.01 uF  X7R 100V 10%</t>
-  </si>
-  <si>
     <t xml:space="preserve">10uF X7R 50V 10% </t>
   </si>
   <si>
@@ -359,6 +356,12 @@
   </si>
   <si>
     <t>Panasonic</t>
+  </si>
+  <si>
+    <t>0.01 uF X7R 100V 10%</t>
+  </si>
+  <si>
+    <t>SN74LVC8T245PW</t>
   </si>
 </sst>
 </file>
@@ -4522,7 +4525,7 @@
   <dimension ref="A4:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4600,7 +4603,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
@@ -4612,7 +4615,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4831,7 +4834,7 @@
         <v>78</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -5200,16 +5203,16 @@
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="5"/>
@@ -5230,16 +5233,16 @@
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="5"/>
@@ -5260,16 +5263,16 @@
         <v>6</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="5"/>
@@ -5290,7 +5293,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>47</v>
@@ -5299,7 +5302,7 @@
         <v>34</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="5"/>
@@ -5320,16 +5323,16 @@
         <v>3</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="5"/>
@@ -5350,16 +5353,16 @@
         <v>3</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="5"/>
@@ -5381,7 +5384,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>46</v>
@@ -5411,7 +5414,7 @@
         <v>38</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="27" t="s">
         <v>57</v>
@@ -5443,7 +5446,7 @@
         <v>37</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>46</v>
@@ -5473,7 +5476,7 @@
         <v>87</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>46</v>
